--- a/Casos-de-prueba/Casos-de-prueba.xlsx
+++ b/Casos-de-prueba/Casos-de-prueba.xlsx
@@ -1,18 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariadelmilagrocabrera/Desktop/Proyecto-Final-Milagro-Cabrera/Casos-de-prueba/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F882780C-01BE-8E45-AE3E-4D5F312AA444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="CASOS DE PRUEBA" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="BUGS" sheetId="2" r:id="rId5"/>
+    <sheet name="CASOS DE PRUEBA" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CASOS DE PRUEBA'!$I$1:$I$19</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="112">
   <si>
     <t>Nombre del proyecto: Spotify</t>
   </si>
@@ -285,25 +296,144 @@
   <si>
     <t>Efectivamente aparece y se puede visualizar el album completo</t>
   </si>
+  <si>
+    <t>HU11</t>
+  </si>
+  <si>
+    <t>El caso de prueba valida que se puede buscar un artista por su nombre</t>
+  </si>
+  <si>
+    <t>BuscarUnPlaylist</t>
+  </si>
+  <si>
+    <t>1. Desde inicio
+2. Presionar en buscar/lupa
+3. Escribir el nombre de la Playlist
+4. Seleccionar la playlist dentro de las busquedas sugeridas</t>
+  </si>
+  <si>
+    <t>La playlist aparece dentro de las primeras sugerencias y al seleccionarla se visualiza el listado de canciones</t>
+  </si>
+  <si>
+    <t>Se puede visualizar la playlist con sus canciones correctamente</t>
+  </si>
+  <si>
+    <t>HU12</t>
+  </si>
+  <si>
+    <t>BuscarPorGenero</t>
+  </si>
+  <si>
+    <t>El caso de prueba valida que se puede buscar un genero en la linea de buscador</t>
+  </si>
+  <si>
+    <t>1. Desde inicio
+2. Presionar en buscar/lupa
+3. Escribir el nombre de el genero
+4. Seleccionar el genero dentro de las busquedas sugeridas
+5.Se visualiza diferentes apartados relacionados al genero</t>
+  </si>
+  <si>
+    <t>Se puede visualizar el genero en la pagina principal con sus diferentes apartados</t>
+  </si>
+  <si>
+    <t>Efectivamente se puede visualizar</t>
+  </si>
+  <si>
+    <t>HU13</t>
+  </si>
+  <si>
+    <t>CrearUnaPlaylist</t>
+  </si>
+  <si>
+    <t>El caso de prueba valida que se puede crear una playlist</t>
+  </si>
+  <si>
+    <t>1. Desde inicio presionar "+"
+2. Se despliegan varias opciones, seleccionar Playlist
+3. Se crea automaticamente en tu bublioteca con nombre MiPlaylist#</t>
+  </si>
+  <si>
+    <t>Se visualiza la playlist con el nombre correspondiente en tu biblioteca</t>
+  </si>
+  <si>
+    <t>Efectivamente se puede visualizar la playlist en la bliblioteca</t>
+  </si>
+  <si>
+    <t>HU14</t>
+  </si>
+  <si>
+    <t>AgregarCancionEnPlaylist</t>
+  </si>
+  <si>
+    <t>El caso de prueba valida que se pueden agregar canciones en una playlist</t>
+  </si>
+  <si>
+    <t>Se agrega una cancion a la playlist</t>
+  </si>
+  <si>
+    <t>Efectivamente se agrega la cancion a la playlist deseada</t>
+  </si>
+  <si>
+    <t>HU15</t>
+  </si>
+  <si>
+    <t>EliminarCancionEnPlaylist</t>
+  </si>
+  <si>
+    <t>El caso de prueba valida que se puede eliminar una cancion de una playlist</t>
+  </si>
+  <si>
+    <t>1. Crear la playlist 
+2. Se visualiza un buscador dentro de el apartado de playlist
+3. Buscar una cancion y presionar AGREGAR en la parte derecha de la misma.</t>
+  </si>
+  <si>
+    <t>1. Abrir la playlist
+2. Acercar cursor a una cancion y presionar los tres puntos
+3. Se despliega lista de opciones, seleccionar eliminar de esta playlist</t>
+  </si>
+  <si>
+    <t>Se elimina la cancion de la playlist</t>
+  </si>
+  <si>
+    <t>Efectivamente se elimina la cancion de la playlist</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -312,7 +442,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -322,93 +452,92 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE599"/>
+          <bgColor rgb="FFFFE599"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE06666"/>
+          <bgColor rgb="FFE06666"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
           <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE06666"/>
-          <bgColor rgb="FFE06666"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE599"/>
-          <bgColor rgb="FFFFE599"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -598,464 +727,648 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Y19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:K12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="27.63"/>
-    <col customWidth="1" min="7" max="7" width="18.5"/>
-    <col customWidth="1" min="8" max="8" width="29.38"/>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+    </row>
+    <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+    </row>
+    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+    </row>
+    <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+    </row>
+    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="D5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="D6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="D7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="5" t="s">
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="D8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="5" t="s">
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="D9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="5" t="s">
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+    </row>
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="5" t="s">
+      <c r="D10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="5" t="s">
+      <c r="J10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="5" t="s">
+      <c r="E11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="5" t="s">
+      <c r="J11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="5" t="s">
+      <c r="D12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="D13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="5" t="s">
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="5" t="s">
+      <c r="D14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="6" t="s">
         <v>23</v>
       </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
     </row>
   </sheetData>
+  <autoFilter ref="I1:I19" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:G1"/>
@@ -1063,34 +1376,16 @@
     <mergeCell ref="E2:G2"/>
   </mergeCells>
   <conditionalFormatting sqref="I1:I1000">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH(("OK"),(I1))))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1000">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH(("FAIL"),(I1))))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1000">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="BLOQUEO">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="BLOQUEO">
       <formula>NOT(ISERROR(SEARCH(("BLOQUEO"),(I1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>